--- a/output.xlsx
+++ b/output.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-09-09 07:59:30</t>
+          <t>2023-09-09 13:56:09</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-09-09 13:56:09</t>
+          <t>2023-09-12 14:38:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Demo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>null</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-09-12 14:38:05</t>
+          <t>2023-09-12 20:22:05</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-09-12 20:22:05</t>
+          <t>2023-09-12 20:37:05</t>
         </is>
       </c>
     </row>
